--- a/output/results_2023-08-08/preprocessed/ind_coef_product_amount_vs_gdp.xlsx
+++ b/output/results_2023-08-08/preprocessed/ind_coef_product_amount_vs_gdp.xlsx
@@ -513,13 +513,13 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>15754.08655991413</v>
+        <v>15754.08655991414</v>
       </c>
       <c r="F2" t="n">
         <v>-0.162467416095</v>
       </c>
       <c r="G2" t="n">
-        <v>9587.331293241985</v>
+        <v>9587.331293241945</v>
       </c>
       <c r="H2" t="n">
         <v>0.284176322435</v>
@@ -539,13 +539,13 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>4423.535813441053</v>
+        <v>4423.535813441055</v>
       </c>
       <c r="F3" t="n">
         <v>-0.506623080647</v>
       </c>
       <c r="G3" t="n">
-        <v>1113.951707283132</v>
+        <v>1113.951707283139</v>
       </c>
       <c r="H3" t="n">
         <v>0.797745464437</v>
@@ -571,7 +571,7 @@
         <v>-0.253775450462</v>
       </c>
       <c r="G4" t="n">
-        <v>7695.568370199818</v>
+        <v>7695.568370199786</v>
       </c>
       <c r="H4" t="n">
         <v>0.06995982701800001</v>
@@ -623,7 +623,7 @@
         <v>0.086783770819</v>
       </c>
       <c r="G6" t="n">
-        <v>51142.10843477679</v>
+        <v>51142.1084347768</v>
       </c>
       <c r="H6" t="n">
         <v>-0.677377516941</v>
@@ -669,13 +669,13 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>-1130.813978526757</v>
+        <v>-1130.813978526754</v>
       </c>
       <c r="F8" t="n">
         <v>0.137174146489</v>
       </c>
       <c r="G8" t="n">
-        <v>701.90452522544</v>
+        <v>701.9045252254469</v>
       </c>
       <c r="H8" t="n">
         <v>-0.094165348328</v>
@@ -695,13 +695,13 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>3542.689916997194</v>
+        <v>3542.689916997193</v>
       </c>
       <c r="F9" t="n">
         <v>0.492399011166</v>
       </c>
       <c r="G9" t="n">
-        <v>-7049.185781302887</v>
+        <v>-7049.185781302883</v>
       </c>
       <c r="H9" t="n">
         <v>1.678598366766</v>
@@ -727,7 +727,7 @@
         <v>-0.290630268527</v>
       </c>
       <c r="G10" t="n">
-        <v>25151.36066121274</v>
+        <v>25151.36066121284</v>
       </c>
       <c r="H10" t="n">
         <v>-0.091208368985</v>
@@ -753,7 +753,7 @@
         <v>0.003905911866</v>
       </c>
       <c r="G11" t="n">
-        <v>-79.39570152365999</v>
+        <v>-79.39570152366301</v>
       </c>
       <c r="H11" t="n">
         <v>0.026037456969</v>
@@ -779,7 +779,7 @@
         <v>0.456426661023</v>
       </c>
       <c r="G12" t="n">
-        <v>5879.995910694887</v>
+        <v>5879.995910694906</v>
       </c>
       <c r="H12" t="n">
         <v>1.032258626237</v>
@@ -825,7 +825,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>5981.14807493434</v>
+        <v>5981.148074934341</v>
       </c>
       <c r="F14" t="n">
         <v>-0.035478679014</v>
@@ -851,13 +851,13 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>1979.592478073203</v>
+        <v>1979.592478073204</v>
       </c>
       <c r="F15" t="n">
         <v>-0.018726714407</v>
       </c>
       <c r="G15" t="n">
-        <v>1767.380046049019</v>
+        <v>1767.380046049024</v>
       </c>
       <c r="H15" t="n">
         <v>0.024121394497</v>
@@ -883,7 +883,7 @@
         <v>0.086862774278</v>
       </c>
       <c r="G16" t="n">
-        <v>1112.855471141861</v>
+        <v>1112.855471141844</v>
       </c>
       <c r="H16" t="n">
         <v>0.203116067145</v>
@@ -903,13 +903,13 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>895.552648332154</v>
+        <v>895.552648332153</v>
       </c>
       <c r="F17" t="n">
         <v>0.13768014379</v>
       </c>
       <c r="G17" t="n">
-        <v>6392.345368524269</v>
+        <v>6392.345368524255</v>
       </c>
       <c r="H17" t="n">
         <v>-0.238717263111</v>
@@ -961,7 +961,7 @@
         <v>0.101249731787</v>
       </c>
       <c r="G19" t="n">
-        <v>1027.567560066165</v>
+        <v>1027.567560066166</v>
       </c>
       <c r="H19" t="n">
         <v>-0.142180866207</v>
@@ -987,7 +987,7 @@
         <v>-0.509133374348</v>
       </c>
       <c r="G20" t="n">
-        <v>6479.170030114902</v>
+        <v>6479.170030114865</v>
       </c>
       <c r="H20" t="n">
         <v>0.109120844985</v>
@@ -1007,13 +1007,13 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>-85.30301330396399</v>
+        <v>-85.303013303963</v>
       </c>
       <c r="F21" t="n">
         <v>0.033647598091</v>
       </c>
       <c r="G21" t="n">
-        <v>-790.173253782015</v>
+        <v>-790.173253782013</v>
       </c>
       <c r="H21" t="n">
         <v>0.113142504296</v>
@@ -1039,7 +1039,7 @@
         <v>0.111029188256</v>
       </c>
       <c r="G22" t="n">
-        <v>2487.770072020651</v>
+        <v>2487.770072020653</v>
       </c>
       <c r="H22" t="n">
         <v>0.206847758226</v>
@@ -1065,7 +1065,7 @@
         <v>0.110110002538</v>
       </c>
       <c r="G23" t="n">
-        <v>-3318.394514092751</v>
+        <v>-3318.394514092752</v>
       </c>
       <c r="H23" t="n">
         <v>0.314079303226</v>
@@ -1085,13 +1085,13 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>4732.601373653846</v>
+        <v>4732.601373653848</v>
       </c>
       <c r="F24" t="n">
         <v>0.005230985604</v>
       </c>
       <c r="G24" t="n">
-        <v>5132.846277507028</v>
+        <v>5132.846277507031</v>
       </c>
       <c r="H24" t="n">
         <v>-0.01740542731</v>
@@ -1111,13 +1111,13 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>31406.77797763432</v>
+        <v>31406.77797763431</v>
       </c>
       <c r="F25" t="n">
         <v>-0.456013282837</v>
       </c>
       <c r="G25" t="n">
-        <v>36314.10707677979</v>
+        <v>36314.10707677976</v>
       </c>
       <c r="H25" t="n">
         <v>-0.782530427048</v>
@@ -1143,7 +1143,7 @@
         <v>-0.00572655253</v>
       </c>
       <c r="G26" t="n">
-        <v>1349.899636260237</v>
+        <v>1349.899636260235</v>
       </c>
       <c r="H26" t="n">
         <v>-0.019984253588</v>
@@ -1163,13 +1163,13 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>-535.76660846843</v>
+        <v>-535.766608468433</v>
       </c>
       <c r="F27" t="n">
         <v>0.022625108617</v>
       </c>
       <c r="G27" t="n">
-        <v>5116.243499481301</v>
+        <v>5116.243499481448</v>
       </c>
       <c r="H27" t="n">
         <v>-0.13351436266</v>
@@ -1195,7 +1195,7 @@
         <v>0.011572018932</v>
       </c>
       <c r="G28" t="n">
-        <v>-448.996183424855</v>
+        <v>-448.996183424859</v>
       </c>
       <c r="H28" t="n">
         <v>0.195831742556</v>
@@ -1221,7 +1221,7 @@
         <v>0.058982938484</v>
       </c>
       <c r="G29" t="n">
-        <v>-2299.355198888649</v>
+        <v>-2299.355198888644</v>
       </c>
       <c r="H29" t="n">
         <v>1.253342556119</v>
@@ -1273,7 +1273,7 @@
         <v>0.28193373062</v>
       </c>
       <c r="G31" t="n">
-        <v>-1346.408507393259</v>
+        <v>-1346.408507393285</v>
       </c>
       <c r="H31" t="n">
         <v>0.7664756241439999</v>
@@ -8179,13 +8179,13 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>233.036371561503</v>
+        <v>233.036371561504</v>
       </c>
       <c r="F3" t="n">
         <v>0.015238205723</v>
       </c>
       <c r="G3" t="n">
-        <v>73.54096151914</v>
+        <v>73.540961519143</v>
       </c>
       <c r="H3" t="n">
         <v>0.078098308162</v>
@@ -8211,7 +8211,7 @@
         <v>0.011016118811</v>
       </c>
       <c r="G4" t="n">
-        <v>-492.444002961011</v>
+        <v>-492.444002961012</v>
       </c>
       <c r="H4" t="n">
         <v>0.175540639724</v>
@@ -8237,7 +8237,7 @@
         <v>0.007707207372</v>
       </c>
       <c r="G5" t="n">
-        <v>134.975291969881</v>
+        <v>134.97529196988</v>
       </c>
       <c r="H5" t="n">
         <v>0.001713505963</v>
@@ -8263,7 +8263,7 @@
         <v>0.783305462293</v>
       </c>
       <c r="G6" t="n">
-        <v>-4394.003340422669</v>
+        <v>-4394.003340422686</v>
       </c>
       <c r="H6" t="n">
         <v>0.456486641764</v>
@@ -8335,13 +8335,13 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>-2032.941442104282</v>
+        <v>-2032.941442104281</v>
       </c>
       <c r="F9" t="n">
         <v>0.298506317828</v>
       </c>
       <c r="G9" t="n">
-        <v>-613.952237403666</v>
+        <v>-613.95223740367</v>
       </c>
       <c r="H9" t="n">
         <v>0.11592272805</v>
@@ -8367,7 +8367,7 @@
         <v>0.267549361659</v>
       </c>
       <c r="G10" t="n">
-        <v>-1285.151467868996</v>
+        <v>-1285.151467868993</v>
       </c>
       <c r="H10" t="n">
         <v>0.328493965248</v>
@@ -8393,7 +8393,7 @@
         <v>0.023858184718</v>
       </c>
       <c r="G11" t="n">
-        <v>-781.630755777789</v>
+        <v>-781.630755777806</v>
       </c>
       <c r="H11" t="n">
         <v>0.207985007367</v>
@@ -8413,13 +8413,13 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>-2104.572213922021</v>
+        <v>-2104.57221392202</v>
       </c>
       <c r="F12" t="n">
         <v>0.329653035911</v>
       </c>
       <c r="G12" t="n">
-        <v>2542.703588890409</v>
+        <v>2542.703588890407</v>
       </c>
       <c r="H12" t="n">
         <v>-0.135237633256</v>
@@ -8471,7 +8471,7 @@
         <v>-1.4549576e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>-239.105872311352</v>
+        <v>-239.105872311354</v>
       </c>
       <c r="H14" t="n">
         <v>0.005369457013</v>
@@ -8497,7 +8497,7 @@
         <v>0.048855370256</v>
       </c>
       <c r="G15" t="n">
-        <v>181.210838974029</v>
+        <v>181.210838974024</v>
       </c>
       <c r="H15" t="n">
         <v>0.012269608415</v>
@@ -8523,7 +8523,7 @@
         <v>0.06656529256</v>
       </c>
       <c r="G16" t="n">
-        <v>-1456.063215588489</v>
+        <v>-1456.06321558849</v>
       </c>
       <c r="H16" t="n">
         <v>0.18368761216</v>
@@ -8543,13 +8543,13 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>-1761.672562613272</v>
+        <v>-1761.672562613275</v>
       </c>
       <c r="F17" t="n">
         <v>0.152616689603</v>
       </c>
       <c r="G17" t="n">
-        <v>-718.45017324306</v>
+        <v>-718.450173243061</v>
       </c>
       <c r="H17" t="n">
         <v>0.071855816861</v>
@@ -8569,13 +8569,13 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>-1029.621118039885</v>
+        <v>-1029.621118039884</v>
       </c>
       <c r="F18" t="n">
         <v>0.425378306021</v>
       </c>
       <c r="G18" t="n">
-        <v>-835.737627334861</v>
+        <v>-835.737627334863</v>
       </c>
       <c r="H18" t="n">
         <v>0.37817086871</v>
@@ -8627,7 +8627,7 @@
         <v>0.008932055655</v>
       </c>
       <c r="G20" t="n">
-        <v>338.884162182172</v>
+        <v>338.88416218217</v>
       </c>
       <c r="H20" t="n">
         <v>0.006563323783</v>
@@ -8647,13 +8647,13 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>-62.054130903634</v>
+        <v>-62.054130903633</v>
       </c>
       <c r="F21" t="n">
         <v>0.037893585923</v>
       </c>
       <c r="G21" t="n">
-        <v>-540.172792387427</v>
+        <v>-540.172792387428</v>
       </c>
       <c r="H21" t="n">
         <v>0.091815564702</v>
@@ -8679,7 +8679,7 @@
         <v>0.039522162519</v>
       </c>
       <c r="G22" t="n">
-        <v>-1229.327659837917</v>
+        <v>-1229.327659837918</v>
       </c>
       <c r="H22" t="n">
         <v>0.301086319684</v>
@@ -8705,7 +8705,7 @@
         <v>0.299049270043</v>
       </c>
       <c r="G23" t="n">
-        <v>-4687.157972239248</v>
+        <v>-4687.157972239241</v>
       </c>
       <c r="H23" t="n">
         <v>0.614206116541</v>
@@ -8725,13 +8725,13 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>-1632.500449355515</v>
+        <v>-1632.500449355518</v>
       </c>
       <c r="F24" t="n">
         <v>0.267714135081</v>
       </c>
       <c r="G24" t="n">
-        <v>-9867.674666388108</v>
+        <v>-9867.674666388069</v>
       </c>
       <c r="H24" t="n">
         <v>0.77707301825</v>
@@ -8757,7 +8757,7 @@
         <v>0.01939737052</v>
       </c>
       <c r="G25" t="n">
-        <v>815.6687553917139</v>
+        <v>815.668755391718</v>
       </c>
       <c r="H25" t="n">
         <v>0.247915592289</v>
@@ -8777,13 +8777,13 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>902.525432336013</v>
+        <v>902.525432336012</v>
       </c>
       <c r="F26" t="n">
         <v>0.012511804301</v>
       </c>
       <c r="G26" t="n">
-        <v>-563.3749259644291</v>
+        <v>-563.374925964431</v>
       </c>
       <c r="H26" t="n">
         <v>0.083042077206</v>
@@ -8803,13 +8803,13 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>336.948812200926</v>
+        <v>336.948812200927</v>
       </c>
       <c r="F27" t="n">
         <v>0.013919931926</v>
       </c>
       <c r="G27" t="n">
-        <v>-15242.76677727384</v>
+        <v>-15242.76677727433</v>
       </c>
       <c r="H27" t="n">
         <v>0.444316995683</v>
@@ -8913,7 +8913,7 @@
         <v>0.131515167096</v>
       </c>
       <c r="G31" t="n">
-        <v>883.183577808212</v>
+        <v>883.183577808176</v>
       </c>
       <c r="H31" t="n">
         <v>-0.46070007528</v>
@@ -8965,7 +8965,7 @@
         <v>0.000179585875</v>
       </c>
       <c r="G33" t="n">
-        <v>109.380157982122</v>
+        <v>109.380157982126</v>
       </c>
       <c r="H33" t="n">
         <v>-0.004271216226</v>
@@ -9114,7 +9114,7 @@
         <v>0.052746600485</v>
       </c>
       <c r="G2" t="n">
-        <v>806.253129564442</v>
+        <v>806.253129564441</v>
       </c>
       <c r="H2" t="n">
         <v>0.422637074253</v>
@@ -9134,13 +9134,13 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>5425.657826479453</v>
+        <v>5425.657826479458</v>
       </c>
       <c r="F3" t="n">
         <v>-0.417889172432</v>
       </c>
       <c r="G3" t="n">
-        <v>685.99757732784</v>
+        <v>685.997577327868</v>
       </c>
       <c r="H3" t="n">
         <v>1.450098932743</v>
@@ -9166,7 +9166,7 @@
         <v>-0.165238051371</v>
       </c>
       <c r="G4" t="n">
-        <v>18854.21470764378</v>
+        <v>18854.21470764374</v>
       </c>
       <c r="H4" t="n">
         <v>-1.90945687188</v>
@@ -9212,7 +9212,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>59205.78567582417</v>
+        <v>59205.7856758242</v>
       </c>
       <c r="F6" t="n">
         <v>-0.715823286251</v>
@@ -9244,7 +9244,7 @@
         <v>0.035797559891</v>
       </c>
       <c r="G7" t="n">
-        <v>677.6764046408711</v>
+        <v>677.67640464087</v>
       </c>
       <c r="H7" t="n">
         <v>0.056093728398</v>
@@ -9264,13 +9264,13 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>-1216.210487494327</v>
+        <v>-1216.21048749433</v>
       </c>
       <c r="F8" t="n">
         <v>0.743020970368</v>
       </c>
       <c r="G8" t="n">
-        <v>-6768.932257459272</v>
+        <v>-6768.932257459273</v>
       </c>
       <c r="H8" t="n">
         <v>1.61456573755</v>
@@ -9290,13 +9290,13 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>5589.946567789082</v>
+        <v>5589.946567789081</v>
       </c>
       <c r="F9" t="n">
         <v>1.065599478774</v>
       </c>
       <c r="G9" t="n">
-        <v>-15003.73980220929</v>
+        <v>-15003.73980220931</v>
       </c>
       <c r="H9" t="n">
         <v>3.715421740804</v>
@@ -9316,13 +9316,13 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>28715.88646113549</v>
+        <v>28715.88646113548</v>
       </c>
       <c r="F10" t="n">
         <v>-0.231404403355</v>
       </c>
       <c r="G10" t="n">
-        <v>-1958.552308730438</v>
+        <v>-1958.552308730455</v>
       </c>
       <c r="H10" t="n">
         <v>2.472669180057</v>
@@ -9342,13 +9342,13 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>1613.468544454361</v>
+        <v>1613.46854445436</v>
       </c>
       <c r="F11" t="n">
         <v>0.105463461747</v>
       </c>
       <c r="G11" t="n">
-        <v>-9351.311799945794</v>
+        <v>-9351.311799945917</v>
       </c>
       <c r="H11" t="n">
         <v>2.291457681617</v>
@@ -9374,7 +9374,7 @@
         <v>0.439973147685</v>
       </c>
       <c r="G12" t="n">
-        <v>-8297.905078224971</v>
+        <v>-8297.905078225031</v>
       </c>
       <c r="H12" t="n">
         <v>3.530764001874</v>
@@ -9394,13 +9394,13 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-353.172832193598</v>
+        <v>-353.172832193599</v>
       </c>
       <c r="F13" t="n">
         <v>0.08904595647999999</v>
       </c>
       <c r="G13" t="n">
-        <v>841.018103763926</v>
+        <v>841.018103763925</v>
       </c>
       <c r="H13" t="n">
         <v>-0.180905473811</v>
@@ -9452,7 +9452,7 @@
         <v>-0.075663806295</v>
       </c>
       <c r="G15" t="n">
-        <v>-3843.15415773069</v>
+        <v>-3843.154157730693</v>
       </c>
       <c r="H15" t="n">
         <v>1.410530326868</v>
@@ -9472,13 +9472,13 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>3668.552493700629</v>
+        <v>3668.552493700631</v>
       </c>
       <c r="F16" t="n">
         <v>-0.018800845144</v>
       </c>
       <c r="G16" t="n">
-        <v>-658.233257650875</v>
+        <v>-658.233257650879</v>
       </c>
       <c r="H16" t="n">
         <v>0.287376278549</v>
@@ -9498,13 +9498,13 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>4725.628111880152</v>
+        <v>4725.628111880154</v>
       </c>
       <c r="F17" t="n">
         <v>-0.003417365608</v>
       </c>
       <c r="G17" t="n">
-        <v>2004.393802045698</v>
+        <v>2004.3938020457</v>
       </c>
       <c r="H17" t="n">
         <v>0.207246496708</v>
@@ -9530,7 +9530,7 @@
         <v>0.413902613155</v>
       </c>
       <c r="G18" t="n">
-        <v>9129.77284265589</v>
+        <v>9129.772842655879</v>
       </c>
       <c r="H18" t="n">
         <v>0.814639745748</v>
@@ -9550,13 +9550,13 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>-59.19314200752</v>
+        <v>-59.193142007521</v>
       </c>
       <c r="F19" t="n">
         <v>0.428766740852</v>
       </c>
       <c r="G19" t="n">
-        <v>-3670.627865385956</v>
+        <v>-3670.627865385961</v>
       </c>
       <c r="H19" t="n">
         <v>1.115430584233</v>
@@ -9582,7 +9582,7 @@
         <v>0.143092389843</v>
       </c>
       <c r="G20" t="n">
-        <v>7809.744961701096</v>
+        <v>7809.744961701058</v>
       </c>
       <c r="H20" t="n">
         <v>-0.362673345728</v>
@@ -9602,13 +9602,13 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>1486.352971289482</v>
+        <v>1486.352971289481</v>
       </c>
       <c r="F21" t="n">
         <v>-0.021899716336</v>
       </c>
       <c r="G21" t="n">
-        <v>-1292.707764585926</v>
+        <v>-1292.707764585901</v>
       </c>
       <c r="H21" t="n">
         <v>0.291521336007</v>
@@ -9628,13 +9628,13 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>2241.818760698978</v>
+        <v>2241.818760698979</v>
       </c>
       <c r="F22" t="n">
         <v>0.08098241495400001</v>
       </c>
       <c r="G22" t="n">
-        <v>1127.64033650599</v>
+        <v>1127.640336505987</v>
       </c>
       <c r="H22" t="n">
         <v>0.284643575659</v>
@@ -9654,13 +9654,13 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>1834.086953978414</v>
+        <v>1834.086953978412</v>
       </c>
       <c r="F23" t="n">
         <v>-0.012217064246</v>
       </c>
       <c r="G23" t="n">
-        <v>1939.181467453834</v>
+        <v>1939.181467453833</v>
       </c>
       <c r="H23" t="n">
         <v>-0.020489170653</v>
@@ -9680,13 +9680,13 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>3581.677926138027</v>
+        <v>3581.677926138028</v>
       </c>
       <c r="F24" t="n">
         <v>-0.023972227323</v>
       </c>
       <c r="G24" t="n">
-        <v>6731.928808281828</v>
+        <v>6731.928808281812</v>
       </c>
       <c r="H24" t="n">
         <v>-0.218820354241</v>
@@ -9712,7 +9712,7 @@
         <v>-0.237409705018</v>
       </c>
       <c r="G25" t="n">
-        <v>18162.28920205445</v>
+        <v>18162.28920205444</v>
       </c>
       <c r="H25" t="n">
         <v>-0.057670581128</v>
@@ -9732,13 +9732,13 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>2137.830745254474</v>
+        <v>2137.830745254473</v>
       </c>
       <c r="F26" t="n">
         <v>-0.006498017419</v>
       </c>
       <c r="G26" t="n">
-        <v>2196.602568025709</v>
+        <v>2196.602568025714</v>
       </c>
       <c r="H26" t="n">
         <v>-0.009325762616999999</v>
@@ -9758,13 +9758,13 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>3887.52235181128</v>
+        <v>3887.522351811278</v>
       </c>
       <c r="F27" t="n">
         <v>0.005039238491</v>
       </c>
       <c r="G27" t="n">
-        <v>13820.44410572365</v>
+        <v>13820.44410572414</v>
       </c>
       <c r="H27" t="n">
         <v>-0.269362455998</v>
@@ -9816,7 +9816,7 @@
         <v>0.164291039893</v>
       </c>
       <c r="G29" t="n">
-        <v>-2134.980058949786</v>
+        <v>-2134.980058949783</v>
       </c>
       <c r="H29" t="n">
         <v>1.326508779305</v>
@@ -9842,7 +9842,7 @@
         <v>0.562507885563</v>
       </c>
       <c r="G30" t="n">
-        <v>639.380611085861</v>
+        <v>639.3806110858631</v>
       </c>
       <c r="H30" t="n">
         <v>-0.372606941282</v>
@@ -9862,13 +9862,13 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>2298.875292950843</v>
+        <v>2298.875292950841</v>
       </c>
       <c r="F31" t="n">
         <v>-0.049515005559</v>
       </c>
       <c r="G31" t="n">
-        <v>-1813.303688624924</v>
+        <v>-1813.303688624883</v>
       </c>
       <c r="H31" t="n">
         <v>1.93167224447</v>
@@ -9888,13 +9888,13 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>94.837355968455</v>
+        <v>94.837355968456</v>
       </c>
       <c r="F32" t="n">
         <v>0.195434766974</v>
       </c>
       <c r="G32" t="n">
-        <v>-325.847327144085</v>
+        <v>-325.847327144083</v>
       </c>
       <c r="H32" t="n">
         <v>0.539496592034</v>
@@ -9920,7 +9920,7 @@
         <v>0.003438832965</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.631033193248</v>
+        <v>-7.631033193249</v>
       </c>
       <c r="H33" t="n">
         <v>0.002650363767</v>
@@ -9946,7 +9946,7 @@
         <v>0.046320684963</v>
       </c>
       <c r="G34" t="n">
-        <v>235.667557304808</v>
+        <v>235.667557304807</v>
       </c>
       <c r="H34" t="n">
         <v>0.07793960721</v>
@@ -9972,7 +9972,7 @@
         <v>0.018366186401</v>
       </c>
       <c r="G35" t="n">
-        <v>-223.810964474952</v>
+        <v>-223.810964474956</v>
       </c>
       <c r="H35" t="n">
         <v>0.096002312617</v>
@@ -11128,7 +11128,7 @@
         <v>-0.010430334121</v>
       </c>
       <c r="G6" t="n">
-        <v>29.351246072645</v>
+        <v>29.351246072644</v>
       </c>
       <c r="H6" t="n">
         <v>0.055207412047</v>
@@ -11206,7 +11206,7 @@
         <v>0.015379177193</v>
       </c>
       <c r="G9" t="n">
-        <v>-418.585407263024</v>
+        <v>-418.585407263025</v>
       </c>
       <c r="H9" t="n">
         <v>0.06932355071</v>
@@ -11258,7 +11258,7 @@
         <v>-0.005931065528</v>
       </c>
       <c r="G11" t="n">
-        <v>214.668251570455</v>
+        <v>214.668251570457</v>
       </c>
       <c r="H11" t="n">
         <v>-0.034446145404</v>
@@ -11362,7 +11362,7 @@
         <v>-0.006321513984</v>
       </c>
       <c r="G15" t="n">
-        <v>33.290744566333</v>
+        <v>33.290744566335</v>
       </c>
       <c r="H15" t="n">
         <v>0.004209723346</v>
@@ -11382,13 +11382,13 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>160.440654043937</v>
+        <v>160.440654043938</v>
       </c>
       <c r="F16" t="n">
         <v>0.001006308778</v>
       </c>
       <c r="G16" t="n">
-        <v>-1005.849947079262</v>
+        <v>-1005.849947079265</v>
       </c>
       <c r="H16" t="n">
         <v>0.07744727973</v>
@@ -11622,7 +11622,7 @@
         <v>0.002595274464</v>
       </c>
       <c r="G25" t="n">
-        <v>-789.108527466621</v>
+        <v>-789.10852746662</v>
       </c>
       <c r="H25" t="n">
         <v>0.069378127288</v>
@@ -11648,7 +11648,7 @@
         <v>0.018262044402</v>
       </c>
       <c r="G26" t="n">
-        <v>-42.068900630482</v>
+        <v>-42.068900630481</v>
       </c>
       <c r="H26" t="n">
         <v>0.017060131546</v>
@@ -11674,7 +11674,7 @@
         <v>-0.003200322153</v>
       </c>
       <c r="G27" t="n">
-        <v>373.466355024122</v>
+        <v>373.466355024112</v>
       </c>
       <c r="H27" t="n">
         <v>-0.006043802434</v>
@@ -11700,7 +11700,7 @@
         <v>-0.015008733014</v>
       </c>
       <c r="G28" t="n">
-        <v>-228.445607494483</v>
+        <v>-228.445607494485</v>
       </c>
       <c r="H28" t="n">
         <v>0.128727341251</v>
@@ -11830,7 +11830,7 @@
         <v>0.038113812364</v>
       </c>
       <c r="G33" t="n">
-        <v>-432.340249791777</v>
+        <v>-432.340249791792</v>
       </c>
       <c r="H33" t="n">
         <v>-0.000694992867</v>
@@ -12934,7 +12934,7 @@
         <v>-0.000270708226</v>
       </c>
       <c r="G2" t="n">
-        <v>46.192874003151</v>
+        <v>46.19287400315</v>
       </c>
       <c r="H2" t="n">
         <v>-0.002582215949</v>
@@ -13480,7 +13480,7 @@
         <v>0.004943229699</v>
       </c>
       <c r="G23" t="n">
-        <v>-237.919736427841</v>
+        <v>-237.919736427842</v>
       </c>
       <c r="H23" t="n">
         <v>0.016747947798</v>
@@ -13688,7 +13688,7 @@
         <v>0.000728253054</v>
       </c>
       <c r="G31" t="n">
-        <v>272.720959608744</v>
+        <v>272.720959608742</v>
       </c>
       <c r="H31" t="n">
         <v>-0.111740387011</v>
@@ -13915,7 +13915,7 @@
         <v>0.014445499286</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.269192306515</v>
+        <v>-1.269192306516</v>
       </c>
       <c r="H3" t="n">
         <v>-0.006085375485</v>
@@ -13987,7 +13987,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-143.149897839303</v>
+        <v>-143.149897839304</v>
       </c>
       <c r="F6" t="n">
         <v>0.009005198927</v>
@@ -14071,7 +14071,7 @@
         <v>-0.001199108878</v>
       </c>
       <c r="G9" t="n">
-        <v>-128.577663307495</v>
+        <v>-128.577663307494</v>
       </c>
       <c r="H9" t="n">
         <v>0.016609522822</v>
@@ -14097,7 +14097,7 @@
         <v>-0.000315087478</v>
       </c>
       <c r="G10" t="n">
-        <v>-49.701088592842</v>
+        <v>-49.701088592843</v>
       </c>
       <c r="H10" t="n">
         <v>0.003977562758</v>
@@ -14643,7 +14643,7 @@
         <v>-0.012101833098</v>
       </c>
       <c r="G31" t="n">
-        <v>182.631799998272</v>
+        <v>182.631799998266</v>
       </c>
       <c r="H31" t="n">
         <v>-0.06807097287199999</v>
@@ -14844,7 +14844,7 @@
         <v>0.049348979031</v>
       </c>
       <c r="G2" t="n">
-        <v>-11139.72929819995</v>
+        <v>-11139.72929820021</v>
       </c>
       <c r="H2" t="n">
         <v>0.5640365969359999</v>
@@ -14867,10 +14867,10 @@
         <v>99.2</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>99.19999999999899</v>
+        <v>99.199999999998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -14890,13 +14890,13 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>287.562702401728</v>
+        <v>287.562702401727</v>
       </c>
       <c r="F4" t="n">
         <v>-0.008690286518000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-878.753431256779</v>
+        <v>-878.753431256815</v>
       </c>
       <c r="H4" t="n">
         <v>0.139264684365</v>
@@ -14948,7 +14948,7 @@
         <v>0.091716773695</v>
       </c>
       <c r="G6" t="n">
-        <v>-35048.69802958026</v>
+        <v>-35048.69802958044</v>
       </c>
       <c r="H6" t="n">
         <v>1.947292388234</v>
@@ -15000,7 +15000,7 @@
         <v>0.001957137649</v>
       </c>
       <c r="G8" t="n">
-        <v>-579.043101240208</v>
+        <v>-579.0431012401961</v>
       </c>
       <c r="H8" t="n">
         <v>0.057489524305</v>
@@ -15020,13 +15020,13 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1674.978979583779</v>
+        <v>1674.97897958378</v>
       </c>
       <c r="F9" t="n">
         <v>-0.042981252693</v>
       </c>
       <c r="G9" t="n">
-        <v>-31346.35253386402</v>
+        <v>-31346.35253386458</v>
       </c>
       <c r="H9" t="n">
         <v>2.515173100576</v>
@@ -15046,13 +15046,13 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>3055.176716874352</v>
+        <v>3055.176716874351</v>
       </c>
       <c r="F10" t="n">
         <v>-0.051268199262</v>
       </c>
       <c r="G10" t="n">
-        <v>-6716.810083960153</v>
+        <v>-6716.810083959581</v>
       </c>
       <c r="H10" t="n">
         <v>0.495733102545</v>
@@ -15104,10 +15104,10 @@
         <v>0.118069750703</v>
       </c>
       <c r="G12" t="n">
-        <v>-11075.93800387151</v>
+        <v>-11075.93800386456</v>
       </c>
       <c r="H12" t="n">
-        <v>0.602378969196</v>
+        <v>0.602378969195</v>
       </c>
       <c r="I12" t="n">
         <v>-7.575894e-06</v>
@@ -15182,7 +15182,7 @@
         <v>0.056572743681</v>
       </c>
       <c r="G15" t="n">
-        <v>-163.210800107264</v>
+        <v>-163.210800107266</v>
       </c>
       <c r="H15" t="n">
         <v>0.008537185579</v>
@@ -15208,7 +15208,7 @@
         <v>0.024721230608</v>
       </c>
       <c r="G16" t="n">
-        <v>-12135.71364793735</v>
+        <v>-12135.71364793663</v>
       </c>
       <c r="H16" t="n">
         <v>0.5591804245799999</v>
@@ -15234,7 +15234,7 @@
         <v>0.001928725374</v>
       </c>
       <c r="G17" t="n">
-        <v>-154.02148156705</v>
+        <v>-154.021481567034</v>
       </c>
       <c r="H17" t="n">
         <v>0.007845563735</v>
@@ -15260,7 +15260,7 @@
         <v>-0.00871981046</v>
       </c>
       <c r="G18" t="n">
-        <v>457.684923245199</v>
+        <v>457.684923245198</v>
       </c>
       <c r="H18" t="n">
         <v>-0.017778864149</v>
@@ -15286,7 +15286,7 @@
         <v>0.005107752769</v>
       </c>
       <c r="G19" t="n">
-        <v>4485.015370413767</v>
+        <v>4485.015370413011</v>
       </c>
       <c r="H19" t="n">
         <v>-0.451211359312</v>
@@ -15306,13 +15306,13 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>754.644374397957</v>
+        <v>754.644374397956</v>
       </c>
       <c r="F20" t="n">
         <v>-0.059175765196</v>
       </c>
       <c r="G20" t="n">
-        <v>2550.850946617813</v>
+        <v>2550.8509466179</v>
       </c>
       <c r="H20" t="n">
         <v>-0.461913989685</v>
@@ -15338,7 +15338,7 @@
         <v>0.000109095967</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.788596475818</v>
+        <v>-6.788596475817</v>
       </c>
       <c r="H21" t="n">
         <v>0.001765883145</v>
@@ -15390,7 +15390,7 @@
         <v>-0.001766534284</v>
       </c>
       <c r="G23" t="n">
-        <v>-425.847549701093</v>
+        <v>-425.84754970109</v>
       </c>
       <c r="H23" t="n">
         <v>0.026192039301</v>
@@ -15416,7 +15416,7 @@
         <v>-0.015860631817</v>
       </c>
       <c r="G24" t="n">
-        <v>2094.959754136155</v>
+        <v>2094.95975413614</v>
       </c>
       <c r="H24" t="n">
         <v>-0.066085633256</v>
@@ -15436,13 +15436,13 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>2488.112235382644</v>
+        <v>2488.112235382641</v>
       </c>
       <c r="F25" t="n">
         <v>-0.043851020946</v>
       </c>
       <c r="G25" t="n">
-        <v>-4379.073915787785</v>
+        <v>-4379.073915785778</v>
       </c>
       <c r="H25" t="n">
         <v>0.27440131882</v>
@@ -15462,13 +15462,13 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>-948.9027060234559</v>
+        <v>-948.902706023457</v>
       </c>
       <c r="F26" t="n">
         <v>0.016199837477</v>
       </c>
       <c r="G26" t="n">
-        <v>-7012.585905972731</v>
+        <v>-7012.585905972443</v>
       </c>
       <c r="H26" t="n">
         <v>0.184915047342</v>
@@ -15494,7 +15494,7 @@
         <v>-0.002954384409</v>
       </c>
       <c r="G27" t="n">
-        <v>5171.579601838351</v>
+        <v>5171.579601838286</v>
       </c>
       <c r="H27" t="n">
         <v>-0.12543612389</v>
